--- a/chooseschool/excel/2022江苏师范大学.xlsx
+++ b/chooseschool/excel/2022江苏师范大学.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\cxm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\chooseschool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C15259-DE40-4F39-8C27-3264E57FCD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CE7FD-CCA0-4BAB-9CF2-8F55D9058800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,16 +1178,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,9 +1195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1208,8 +1211,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1549,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1567,2327 +1570,2628 @@
     <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
         <v>226</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>170.5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>209.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
         <v>226</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>169</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>208.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H3" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
         <v>219</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>184</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>208.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="H4" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
         <v>222</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>174.6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>207.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H5" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
         <v>220</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>172.1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>205.63</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H6" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
         <v>205</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>175.6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>196.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="H7" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
         <v>215</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>149.9</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>195.47</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="H8" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
         <v>200</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>179.6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>193.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="H9" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
         <v>202</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>164</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>190.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="H10" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
         <v>191</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>182.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>188.45</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="H11" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
         <v>178</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>172.8</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>186.94</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="H12" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
         <v>188</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>183.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>186.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="H13" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
         <v>192</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>171.5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>185.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="H14" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
         <v>196</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>155.9</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>183.97</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="H15" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
         <v>197</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>152.5</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>183.65</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="H16" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
         <v>188</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>173</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>183.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="H17" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
         <v>173</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>182</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>182.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="H18" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
         <v>187</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>169.5</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>181.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="H19" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
         <v>189</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>164.5</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>181.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="H20" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
         <v>189</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>164</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>181.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="H21" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
         <v>185</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>172.9</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>181.37</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="H22" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
         <v>186</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>167.7</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>180.51</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="H23" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4">
         <v>190</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>157.9</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>180.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="H24" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
         <v>186</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>166.2</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>180.06</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="H25" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4">
         <v>185</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>167.1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>179.63</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="H26" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4">
         <v>181</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>176</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>179.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="H27" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
         <v>185</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>165.4</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>179.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="H28" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4">
         <v>183</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>170</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>179.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="H29" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
         <v>193</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>146.4</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>179.02</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="H30" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4">
         <v>184</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>166.6</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>178.78</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="H31" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4">
         <v>195</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>140.19999999999999</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>178.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="H32" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
         <v>187</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>157.1</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>178.03</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="H33" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4">
         <v>192</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>145.19999999999999</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>177.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="H34" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4">
         <v>179</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
         <v>174.3</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>177.59</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="H35" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4">
         <v>179</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <v>171.5</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>176.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="H36" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4">
         <v>182</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <v>164</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>176.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="H37" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4">
         <v>180</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <v>167.7</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>176.31</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="H38" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4">
         <v>180</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>166.9</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>176.07</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="H39" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4">
         <v>178</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>171.4</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>176.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="H40" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4">
         <v>184</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>157</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>175.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="H41" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4">
         <v>189</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
         <v>145.19999999999999</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>175.86</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="H42" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4">
         <v>182</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>160.9</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>175.67</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="H43" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4">
         <v>178</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>167.7</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>174.91</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="H44" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4">
         <v>179</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>165.2</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>174.86</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="H45" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="C46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4">
         <v>182</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>152.5</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>173.15</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="H46" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4">
         <v>181</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="1">
         <v>149.80000000000001</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>171.64</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="H47" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
         <v>393</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>174</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>327.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="H48" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
         <v>378</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="1">
         <v>168.4</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>315.12</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="H49" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
         <v>368</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>169.8</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>308.54000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="H50" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
         <v>381</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>169</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>317.39999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="H51" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
         <v>243</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>190.8</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>227.34</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="H52" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="C53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
         <v>233</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>193.4</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>221.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="H53" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="C54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
         <v>231</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>198</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>221.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="H54" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="C55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
         <v>234</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>184.8</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>219.24</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="H55" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="C56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
         <v>233</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>186.8</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>219.14</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="H56" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="C57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
         <v>224</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="1">
         <v>204.6</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>218.18</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="H57" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="C58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
         <v>224</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="1">
         <v>204.2</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>218.06</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="H58" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="C59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
         <v>217</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="1">
         <v>211.4</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>215.32</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="H59" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="C60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
         <v>220</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="1">
         <v>203.8</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>215.14</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="H60" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
         <v>224</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="1">
         <v>192.8</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="1">
         <v>214.64</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="H61" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="C62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
         <v>225</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="1">
         <v>187</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>213.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="H62" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="C63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
         <v>222</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="1">
         <v>192</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="H63" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="C64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
         <v>232</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="1">
         <v>164.2</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>211.66</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="H64" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="C65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
         <v>235</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="1">
         <v>155.6</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="1">
         <v>211.18</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="H65" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="C66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
         <v>230</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="1">
         <v>166.2</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="1">
         <v>210.86</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="H66" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="C67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
         <v>221</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="1">
         <v>185.6</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="1">
         <v>210.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="H67" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="C68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
         <v>222</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="1">
         <v>183</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="1">
         <v>210.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="H68" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="C69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
         <v>218</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="1">
         <v>192</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>210.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="H69" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="C70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
         <v>228</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="1">
         <v>167.4</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="1">
         <v>209.82</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="H70" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3">
+      <c r="C71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
         <v>219</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="1">
         <v>186.8</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="1">
         <v>209.34</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="H71" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="C72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
         <v>216</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="1">
         <v>193.6</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="1">
         <v>209.28</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="H72" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="C73" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
         <v>227</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="1">
         <v>167.8</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="1">
         <v>209.24</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="H73" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="C74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
         <v>215</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="1">
         <v>194.6</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="1">
         <v>208.88</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="H74" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="C75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
         <v>222</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="1">
         <v>178.2</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="1">
         <v>208.86</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="H75" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="C76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
         <v>218</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="1">
         <v>187.4</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="1">
         <v>208.82</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="H76" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="C77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
         <v>220</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="1">
         <v>181</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="1">
         <v>208.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="H77" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3">
+      <c r="C78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
         <v>219</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="1">
         <v>181.2</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="1">
         <v>207.66</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="H78" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="C79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
         <v>222</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="1">
         <v>172.2</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="1">
         <v>207.06</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="H79" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="C80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
         <v>228</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="1">
         <v>157.4</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="1">
         <v>206.82</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="H80" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="C81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
         <v>216</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="1">
         <v>184.6</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="1">
         <v>206.58</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="H81" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3">
+      <c r="C82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
         <v>216</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="1">
         <v>183.8</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="1">
         <v>206.34</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1">
-      <c r="A83" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="H82" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="C83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
         <v>217</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="1">
         <v>181.4</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="1">
         <v>206.32</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="H83" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="C84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
         <v>216</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="1">
         <v>181.2</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="1">
         <v>205.56</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="H84" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="C85" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
         <v>216</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="1">
         <v>180.8</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="1">
         <v>205.44</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1">
-      <c r="A86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="H85" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="C86" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
         <v>215</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="1">
         <v>179</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="1">
         <v>204.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1">
-      <c r="A87" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="H86" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="C87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
         <v>228</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="1">
         <v>148.6</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="1">
         <v>204.18</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="H87" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="3">
+      <c r="C88" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
         <v>217</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="1">
         <v>174</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="1">
         <v>204.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="H88" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="C89" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
         <v>216</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="1">
         <v>174.4</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="1">
         <v>203.52</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="H89" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="C90" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
         <v>221</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="1">
         <v>162.6</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="1">
         <v>203.48</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="H90" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="C91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
         <v>218</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="1">
         <v>169.4</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="1">
         <v>203.42</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1">
-      <c r="A92" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="H91" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="C92" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
         <v>216</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="1">
         <v>173.8</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="1">
         <v>203.34</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1">
-      <c r="A93" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="H92" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="C93" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
         <v>225</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="1">
         <v>152.19999999999999</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="1">
         <v>203.16</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1">
-      <c r="A94" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="H93" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="C94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
         <v>215</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="1">
         <v>174.4</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="1">
         <v>202.82</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1">
-      <c r="A95" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="H94" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="C95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
         <v>220</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="1">
         <v>160.19999999999999</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="1">
         <v>202.06</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="H95" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3">
+      <c r="C96" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
         <v>218</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="1">
         <v>164.6</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="1">
         <v>201.98</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1">
-      <c r="A97" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="H96" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="C97" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
         <v>217</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="1">
         <v>165.4</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="1">
         <v>201.52</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1">
-      <c r="A98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="H97" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="C98" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
         <v>219</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="1">
         <v>159.80000000000001</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="1">
         <v>201.24</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="H98" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" s="3">
+      <c r="C99" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
         <v>215</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="1">
         <v>168.8</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="1">
         <v>201.14</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="H99" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="C100" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
         <v>218</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="1">
         <v>159</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="1">
         <v>200.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1">
-      <c r="A101" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="H100" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="C101" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
         <v>216</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="1">
         <v>162</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="1">
         <v>199.8</v>
+      </c>
+      <c r="H101" s="5">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
